--- a/Output/Classifier Inference/SVM/Individual_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/SVM/Individual_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1088590979576111</v>
+        <v>0.1534889539082845</v>
       </c>
       <c r="B2" t="n">
-        <v>7.310886363842249e-05</v>
+        <v>0.0001030819032292038</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/SVM/Individual_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/SVM/Individual_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1534889539082845</v>
+        <v>0.2376416365305583</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001030819032292038</v>
+        <v>0.0001595981440769364</v>
       </c>
     </row>
   </sheetData>
